--- a/doc/测试计划/测试计划.xlsx
+++ b/doc/测试计划/测试计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>分类</t>
   </si>
@@ -36,6 +36,9 @@
     <t>百度</t>
   </si>
   <si>
+    <t>搜狗</t>
+  </si>
+  <si>
     <t>原生</t>
   </si>
   <si>
@@ -45,30 +48,81 @@
     <t>测试人员</t>
   </si>
   <si>
+    <t>iphone5</t>
+  </si>
+  <si>
+    <t>loading界面的logo位置不对</t>
+  </si>
+  <si>
     <t>IOS</t>
   </si>
   <si>
-    <t>iphone5</t>
+    <t>D</t>
   </si>
   <si>
     <t>楼</t>
   </si>
   <si>
+    <t>取名-名字文本高度不够</t>
+  </si>
+  <si>
     <t>ipad Air</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>流畅</t>
+  </si>
+  <si>
+    <t>大于20</t>
+  </si>
+  <si>
+    <t>确定取名后卡顿</t>
+  </si>
+  <si>
     <t>安卓</t>
   </si>
   <si>
     <t>小米3</t>
   </si>
   <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>可玩</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>整体卡顿</t>
+  </si>
+  <si>
     <t>魅蓝Note</t>
   </si>
   <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>小于10</t>
+  </si>
+  <si>
     <t>三星i9250</t>
   </si>
   <si>
+    <t>懵逼</t>
+  </si>
+  <si>
+    <t>卡在【一起玩吧】界面，刷新就可以了</t>
+  </si>
+  <si>
     <t>Coolpad大神F1</t>
   </si>
   <si>
@@ -84,16 +138,31 @@
     <t>天语WG</t>
   </si>
   <si>
+    <t>百度浏览器</t>
+  </si>
+  <si>
     <t>三星5891q</t>
   </si>
   <si>
     <t>裴</t>
   </si>
   <si>
+    <t>火狐浏览器</t>
+  </si>
+  <si>
     <t>小米NotePro</t>
   </si>
   <si>
+    <t xml:space="preserve">UC </t>
+  </si>
+  <si>
+    <t>卡在loading</t>
+  </si>
+  <si>
     <t>七彩虹</t>
+  </si>
+  <si>
+    <t>美术字白色</t>
   </si>
   <si>
     <t>飞触</t>
@@ -104,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -155,54 +209,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,8 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,46 +309,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,181 +364,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +602,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,175 +669,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -830,6 +889,54 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="4248150"/>
+          <a:ext cx="3905250" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,42 +1227,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="I5:R20"/>
+  <dimension ref="I5:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="9.625" style="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="37.75" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:18">
+    <row r="5" spans="9:26">
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>360</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -1164,232 +1279,339 @@
       <c r="R5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="S5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="9:18">
+    <row r="6" spans="9:26">
       <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="3" t="s">
-        <v>11</v>
+      <c r="R6" s="3"/>
+      <c r="S6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="9:18">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
+    <row r="7" spans="9:26">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
+      <c r="S7" s="2"/>
+      <c r="U7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="9:18">
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
+    <row r="8" spans="9:26">
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
+      <c r="S8" s="2"/>
+      <c r="U8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="9:18">
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4"/>
+    <row r="9" spans="9:23">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="R9" s="3"/>
+      <c r="S9" s="2"/>
+      <c r="U9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="9:18">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
+    <row r="10" spans="9:26">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
+      <c r="S10" s="2"/>
+      <c r="U10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="9:18">
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="6"/>
+    <row r="11" spans="9:19">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="9:18">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
+    <row r="12" spans="9:19">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="3" t="s">
-        <v>18</v>
+      <c r="R12" s="3"/>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="9:18">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
+    <row r="13" spans="9:19">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
+      <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="9:18">
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
+    <row r="14" spans="9:19">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
+      <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="9:18">
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
+    <row r="15" spans="9:19">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
+      <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="9:18">
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="6"/>
+    <row r="16" spans="9:25">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="X16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="9:18">
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
+    <row r="17" spans="9:26">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="3" t="s">
-        <v>23</v>
+      <c r="R17" s="3"/>
+      <c r="S17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="9:18">
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+    <row r="18" spans="9:26">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
+      <c r="S18" s="2"/>
+      <c r="Y18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="9:18">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
+    <row r="19" spans="9:26">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
+      <c r="S19" s="2"/>
+      <c r="Z19" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="9:18">
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
+    <row r="20" spans="9:19">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
+      <c r="S20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="R6:R10"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S6:S10"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="S17:S20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/测试计划/测试计划.xlsx
+++ b/doc/测试计划/测试计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>分类</t>
   </si>
@@ -48,79 +48,76 @@
     <t>测试人员</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>流畅</t>
+  </si>
+  <si>
+    <t>大于20</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
     <t>iphone5</t>
   </si>
   <si>
-    <t>loading界面的logo位置不对</t>
-  </si>
-  <si>
-    <t>IOS</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C  loading卡死</t>
+  </si>
+  <si>
+    <t>楼</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>可玩</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>ipad Air</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>小于10</t>
+  </si>
+  <si>
+    <t>安卓</t>
+  </si>
+  <si>
+    <t>小米3</t>
+  </si>
+  <si>
+    <t>B进入卡死，需刷新</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>楼</t>
-  </si>
-  <si>
-    <t>取名-名字文本高度不够</t>
-  </si>
-  <si>
-    <t>ipad Air</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>流畅</t>
-  </si>
-  <si>
-    <t>大于20</t>
-  </si>
-  <si>
-    <t>确定取名后卡顿</t>
-  </si>
-  <si>
-    <t>安卓</t>
-  </si>
-  <si>
-    <t>小米3</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>可玩</t>
-  </si>
-  <si>
-    <t>10-20</t>
-  </si>
-  <si>
-    <t>整体卡顿</t>
+    <t>懵逼</t>
   </si>
   <si>
     <t>魅蓝Note</t>
   </si>
   <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>小于10</t>
-  </si>
-  <si>
     <t>三星i9250</t>
   </si>
   <si>
-    <t>懵逼</t>
-  </si>
-  <si>
-    <t>卡在【一起玩吧】界面，刷新就可以了</t>
+    <t>D闪屏幕</t>
+  </si>
+  <si>
+    <t>D闪</t>
+  </si>
+  <si>
+    <t>D卡死</t>
   </si>
   <si>
     <t>Coolpad大神F1</t>
@@ -138,34 +135,31 @@
     <t>天语WG</t>
   </si>
   <si>
-    <t>百度浏览器</t>
-  </si>
-  <si>
     <t>三星5891q</t>
   </si>
   <si>
     <t>裴</t>
   </si>
   <si>
-    <t>火狐浏览器</t>
-  </si>
-  <si>
     <t>小米NotePro</t>
   </si>
   <si>
-    <t xml:space="preserve">UC </t>
-  </si>
-  <si>
-    <t>卡在loading</t>
-  </si>
-  <si>
     <t>七彩虹</t>
   </si>
   <si>
-    <t>美术字白色</t>
-  </si>
-  <si>
     <t>飞触</t>
+  </si>
+  <si>
+    <t>通常问题</t>
+  </si>
+  <si>
+    <t>UC浏览器</t>
+  </si>
+  <si>
+    <t>卡顿在loading界面</t>
+  </si>
+  <si>
+    <t>需要重新刷新后进入</t>
   </si>
 </sst>
 </file>
@@ -895,20 +889,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -921,8 +915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10086975" y="4248150"/>
-          <a:ext cx="3905250" cy="2743200"/>
+          <a:off x="5638800" y="4476750"/>
+          <a:ext cx="2428875" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="I5:Z20"/>
+  <dimension ref="I5:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1240,15 +1234,14 @@
     <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="22" width="9" style="1"/>
+    <col min="14" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
+    <col min="19" max="22" width="9" style="1"/>
     <col min="23" max="23" width="9.625" style="1"/>
-    <col min="24" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="37.75" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="24" max="16380" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:26">
+    <row r="5" spans="9:23">
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,44 +1275,64 @@
       <c r="S5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+      <c r="V5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="9:26">
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="9:23">
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="S6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="9:26">
+        <v>17</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="9:23">
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
@@ -1331,105 +1344,115 @@
       <c r="R7" s="3"/>
       <c r="S7" s="2"/>
       <c r="U7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="9:22">
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="9:26">
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N8" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="U8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="9:23">
+    <row r="9" spans="9:19">
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="Q9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="S9" s="2"/>
-      <c r="U9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="9:26">
+    </row>
+    <row r="10" spans="9:19">
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="S10" s="2"/>
-      <c r="U10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="11" spans="9:19">
       <c r="I11" s="5"/>
@@ -1447,7 +1470,7 @@
     <row r="12" spans="9:19">
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
@@ -1458,13 +1481,13 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
       <c r="S12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="9:19">
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
@@ -1479,7 +1502,7 @@
     <row r="14" spans="9:19">
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
@@ -1494,7 +1517,7 @@
     <row r="15" spans="9:19">
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
@@ -1506,7 +1529,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="9:25">
+    <row r="16" spans="9:19">
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1518,17 +1541,11 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="X16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="9:26">
+    </row>
+    <row r="17" spans="9:19">
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
@@ -1539,19 +1556,13 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="9:26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="9:19">
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
@@ -1562,17 +1573,11 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
       <c r="S18" s="2"/>
-      <c r="Y18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="9:26">
+    </row>
+    <row r="19" spans="9:19">
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
@@ -1583,14 +1588,11 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
       <c r="S19" s="2"/>
-      <c r="Z19" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="20" spans="9:19">
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
@@ -1601,6 +1603,22 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
       <c r="S20" s="2"/>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16">
+      <c r="M24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/测试计划/测试计划.xlsx
+++ b/doc/测试计划/测试计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="22950" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>分类</t>
   </si>
@@ -123,6 +123,12 @@
     <t>Coolpad大神F1</t>
   </si>
   <si>
+    <t>A需要刷新</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>黄</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
   </si>
   <si>
     <t>天语WG</t>
+  </si>
+  <si>
+    <t>D无法启动</t>
   </si>
   <si>
     <t>三星5891q</t>
@@ -167,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,6 +204,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -203,14 +257,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,70 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,19 +367,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,157 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,10 +570,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,52 +620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,8 +647,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,7 +1233,7 @@
   <dimension ref="I5:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1472,22 +1481,36 @@
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="9:19">
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
@@ -1495,33 +1518,55 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="9:19">
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="9:19">
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1545,7 +1590,7 @@
     <row r="17" spans="9:19">
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
@@ -1556,13 +1601,13 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
@@ -1577,7 +1622,7 @@
     <row r="19" spans="9:19">
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
@@ -1592,7 +1637,7 @@
     <row r="20" spans="9:19">
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
@@ -1606,18 +1651,18 @@
     </row>
     <row r="23" spans="13:13">
       <c r="M23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="13:16">
       <c r="M24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试计划/测试计划.xlsx
+++ b/doc/测试计划/测试计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22950" windowHeight="13080"/>
+    <workbookView windowWidth="19095" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>分类</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>D无法启动</t>
+  </si>
+  <si>
+    <t>无法安装</t>
+  </si>
+  <si>
+    <t>D无法打开网页</t>
   </si>
   <si>
     <t>三星5891q</t>
@@ -176,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,7 +203,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,22 +286,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,84 +325,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,31 +367,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,42 +511,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,96 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,26 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,45 +598,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +625,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,16 +693,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,115 +711,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="I5:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1563,15 +1569,27 @@
       <c r="K15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
+      <c r="N15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="9:19">
@@ -1590,7 +1608,7 @@
     <row r="17" spans="9:19">
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
@@ -1601,13 +1619,13 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="9:19">
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
@@ -1622,7 +1640,7 @@
     <row r="19" spans="9:19">
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
@@ -1637,7 +1655,7 @@
     <row r="20" spans="9:19">
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
@@ -1651,18 +1669,18 @@
     </row>
     <row r="23" spans="13:13">
       <c r="M23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="13:16">
       <c r="M24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/测试计划/测试计划.xlsx
+++ b/doc/测试计划/测试计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>分类</t>
   </si>
@@ -150,44 +150,97 @@
     <t>D无法打开网页</t>
   </si>
   <si>
-    <t>三星5891q</t>
-  </si>
-  <si>
     <t>裴</t>
   </si>
   <si>
+    <t>飞触</t>
+  </si>
+  <si>
+    <t>通常问题</t>
+  </si>
+  <si>
+    <t>UC浏览器</t>
+  </si>
+  <si>
+    <t>卡顿在loading界面</t>
+  </si>
+  <si>
+    <t>需要重新刷新后进入</t>
+  </si>
+  <si>
+    <t>七彩虹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>小米NotePro</t>
-  </si>
-  <si>
-    <t>七彩虹</t>
-  </si>
-  <si>
-    <t>飞触</t>
-  </si>
-  <si>
-    <t>通常问题</t>
-  </si>
-  <si>
-    <t>UC浏览器</t>
-  </si>
-  <si>
-    <t>卡顿在loading界面</t>
-  </si>
-  <si>
-    <t>需要重新刷新后进入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷派5891q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(点击英雄和排行榜菜单卡死)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(随便点击翻转)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B闪屏幕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D图片错位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(图片渲染不出来)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_shadow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,151 +255,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,204 +284,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -575,255 +324,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,63 +352,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -923,7 +401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,15 +712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="I5:W24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:XEZ25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
@@ -1256,7 +733,7 @@
     <col min="24" max="16380" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:23">
+    <row r="5" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="9:23">
+    <row r="6" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +808,7 @@
       <c r="R6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1344,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="9:23">
+    <row r="7" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>21</v>
@@ -1357,7 +834,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="7"/>
       <c r="U7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="9:22">
+    <row r="8" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +876,7 @@
       <c r="R8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="7"/>
       <c r="U8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="9:19">
+    <row r="9" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1436,9 +913,9 @@
       <c r="R9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="9:19">
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
@@ -1467,9 +944,9 @@
       <c r="R10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="9:19">
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1482,7 +959,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="9:19">
+    <row r="12" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>34</v>
@@ -1509,11 +986,11 @@
         <v>36</v>
       </c>
       <c r="R12" s="3"/>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="9:19">
+    <row r="13" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>38</v>
@@ -1528,9 +1005,9 @@
         <v>15</v>
       </c>
       <c r="R13" s="3"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="9:19">
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>39</v>
@@ -1559,9 +1036,9 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="9:19">
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>40</v>
@@ -1590,9 +1067,9 @@
       <c r="R15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="9:19">
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="9:23" x14ac:dyDescent="0.15">
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1605,82 +1082,154 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="9:19">
+    <row r="17" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="9:19">
+    </row>
+    <row r="18" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="9:19">
+        <v>51</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="9:19">
+        <v>50</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="9:19" x14ac:dyDescent="0.15">
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="23" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="M23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="M24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="23" spans="13:13">
-      <c r="M23" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="13:16">
-      <c r="M24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>52</v>
+      <c r="R24" s="10">
+        <v>85475804</v>
+      </c>
+    </row>
+    <row r="25" spans="9:19" x14ac:dyDescent="0.15">
+      <c r="R25" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1689,43 +1238,37 @@
     <mergeCell ref="S12:S15"/>
     <mergeCell ref="S17:S20"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>